--- a/Energy Consumption24.xlsx
+++ b/Energy Consumption24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.36163347795585</v>
+        <v>2.163010895737672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8575394049723387</v>
+        <v>4.097185091623455</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.48325217963772</v>
+        <v>3.235570498670756</v>
       </c>
       <c r="C3" t="n">
-        <v>1.714799871426721</v>
+        <v>8.192073022743907</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.65286247050062</v>
+        <v>4.765536510082268</v>
       </c>
       <c r="C4" t="n">
-        <v>2.80610121947979</v>
+        <v>12.40482765156577</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.01758739872588</v>
+        <v>6.433122933805482</v>
       </c>
       <c r="C5" t="n">
-        <v>3.824823440739472</v>
+        <v>17.00568812445333</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.73898340046199</v>
+        <v>8.244538086024699</v>
       </c>
       <c r="C6" t="n">
-        <v>5.235568726482852</v>
+        <v>21.20644016298202</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.54140136490232</v>
+        <v>9.716845088336667</v>
       </c>
       <c r="C7" t="n">
-        <v>6.159761018580594</v>
+        <v>25.41009155653449</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16.01133082220602</v>
+        <v>15.10078209939159</v>
       </c>
       <c r="C8" t="n">
-        <v>7.430468337677897</v>
+        <v>29.48681143145043</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.56737487845797</v>
+        <v>15.60091426436921</v>
       </c>
       <c r="C9" t="n">
-        <v>8.475693766358949</v>
+        <v>33.94457234743799</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17.60833849998779</v>
+        <v>18.28937490691169</v>
       </c>
       <c r="C10" t="n">
-        <v>9.484450984457824</v>
+        <v>38.18049870304964</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.97822158113088</v>
+        <v>19.78273921839277</v>
       </c>
       <c r="C11" t="n">
-        <v>10.6637025344921</v>
+        <v>42.85543957863415</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.47235804728878</v>
+        <v>20.49510616167762</v>
       </c>
       <c r="C12" t="n">
-        <v>11.71583075151159</v>
+        <v>47.22440470670529</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.74772075512714</v>
+        <v>22.35895415147025</v>
       </c>
       <c r="C13" t="n">
-        <v>12.66233081134494</v>
+        <v>51.39020283779726</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.11169036867392</v>
+        <v>23.02380353402351</v>
       </c>
       <c r="C14" t="n">
-        <v>13.90661495209213</v>
+        <v>55.68967679406274</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.21966518912751</v>
+        <v>23.87020025854967</v>
       </c>
       <c r="C15" t="n">
-        <v>14.93014075366492</v>
+        <v>60.53698403023608</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31.26346995040639</v>
+        <v>25.62639097014731</v>
       </c>
       <c r="C16" t="n">
-        <v>15.89597304094706</v>
+        <v>65.11865146818074</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>37.25181556757221</v>
+        <v>27.68737114814559</v>
       </c>
       <c r="C17" t="n">
-        <v>16.96618424283104</v>
+        <v>69.35398882958546</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>37.66593010234868</v>
+        <v>28.04081588552889</v>
       </c>
       <c r="C18" t="n">
-        <v>18.11873907718553</v>
+        <v>73.86874721055166</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38.15118610517079</v>
+        <v>30.70183044595878</v>
       </c>
       <c r="C19" t="n">
-        <v>19.66196538839643</v>
+        <v>78.20554293012546</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>43.39658497010147</v>
+        <v>31.60273437940791</v>
       </c>
       <c r="C20" t="n">
-        <v>20.72662790474865</v>
+        <v>82.3801181274232</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45.78506277112123</v>
+        <v>35.53007301666943</v>
       </c>
       <c r="C21" t="n">
-        <v>21.4860051922644</v>
+        <v>87.17996028810926</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>46.024555322442</v>
+        <v>37.6003769054215</v>
       </c>
       <c r="C22" t="n">
-        <v>22.38654743890377</v>
+        <v>91.52613326647344</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>48.20604579793652</v>
+        <v>39.05853914299175</v>
       </c>
       <c r="C23" t="n">
-        <v>23.6013465594253</v>
+        <v>96.84302110174271</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48.36154364060134</v>
+        <v>40.76999755742614</v>
       </c>
       <c r="C24" t="n">
-        <v>24.4787345562385</v>
+        <v>101.3558014702302</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.58756161739017</v>
+        <v>41.70417525617449</v>
       </c>
       <c r="C25" t="n">
-        <v>25.5251604253569</v>
+        <v>105.5792061782314</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.72367360294358</v>
+        <v>45.38490428784193</v>
       </c>
       <c r="C26" t="n">
-        <v>27.09658089144978</v>
+        <v>109.7988444645075</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>60.58018224218115</v>
+        <v>47.82535146328136</v>
       </c>
       <c r="C27" t="n">
-        <v>28.10696395767433</v>
+        <v>114.1942301063541</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>61.3050411406763</v>
+        <v>48.98595736844501</v>
       </c>
       <c r="C28" t="n">
-        <v>29.25240594392376</v>
+        <v>118.7456038863531</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>62.77296144308259</v>
+        <v>52.37104685418971</v>
       </c>
       <c r="C29" t="n">
-        <v>30.46221457073687</v>
+        <v>123.143117136389</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>64.80355955001063</v>
+        <v>53.18489340030789</v>
       </c>
       <c r="C30" t="n">
-        <v>31.50259138665336</v>
+        <v>127.9731537246993</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>65.01932571257944</v>
+        <v>54.1711802627469</v>
       </c>
       <c r="C31" t="n">
-        <v>32.7441588570664</v>
+        <v>132.2565220342947</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>72.18775199336929</v>
+        <v>54.73512696995507</v>
       </c>
       <c r="C32" t="n">
-        <v>33.90408974297102</v>
+        <v>136.5374431658016</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>72.32781799609231</v>
+        <v>56.38404311845105</v>
       </c>
       <c r="C33" t="n">
-        <v>34.90567871645968</v>
+        <v>141.3111997568723</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>74.69649411310124</v>
+        <v>59.41643852151996</v>
       </c>
       <c r="C34" t="n">
-        <v>36.33654479351076</v>
+        <v>145.4429860812598</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>76.46402078675231</v>
+        <v>62.17543693949342</v>
       </c>
       <c r="C35" t="n">
-        <v>37.53827373186246</v>
+        <v>150.4380438311324</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>76.64849722033188</v>
+        <v>65.22913225605791</v>
       </c>
       <c r="C36" t="n">
-        <v>38.91305514075842</v>
+        <v>154.7707987036789</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>76.8324588102287</v>
+        <v>66.73505044191529</v>
       </c>
       <c r="C37" t="n">
-        <v>40.05340760464821</v>
+        <v>159.1314179269283</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>79.90134755491326</v>
+        <v>70.13988725944452</v>
       </c>
       <c r="C38" t="n">
-        <v>41.12872408349503</v>
+        <v>163.309299356001</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>80.20404356206676</v>
+        <v>71.45184723680686</v>
       </c>
       <c r="C39" t="n">
-        <v>42.60748704055952</v>
+        <v>167.7036469500569</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84.02436166776</v>
+        <v>72.77775168105482</v>
       </c>
       <c r="C40" t="n">
-        <v>43.82167986138748</v>
+        <v>171.8206072148614</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>90.29116161926494</v>
+        <v>75.70011118403229</v>
       </c>
       <c r="C41" t="n">
-        <v>44.62043626951277</v>
+        <v>176.0209181640597</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>90.5680592121596</v>
+        <v>78.04472906015513</v>
       </c>
       <c r="C42" t="n">
-        <v>45.99395435499582</v>
+        <v>180.3027379676512</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>90.99953609750555</v>
+        <v>80.60745366192096</v>
       </c>
       <c r="C43" t="n">
-        <v>46.86062367345777</v>
+        <v>184.8225738964389</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>95.15015041211534</v>
+        <v>82.41558936556531</v>
       </c>
       <c r="C44" t="n">
-        <v>47.84377648246093</v>
+        <v>189.3561949000019</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>95.94104886494885</v>
+        <v>84.36098443395464</v>
       </c>
       <c r="C45" t="n">
-        <v>48.74852596004126</v>
+        <v>194.0112015046877</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,54 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>96.05445657367997</v>
+        <v>85.94822765197023</v>
       </c>
       <c r="C46" t="n">
-        <v>49.91811632393442</v>
+        <v>198.1989190527542</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>90.43212939462663</v>
+      </c>
+      <c r="C47" t="n">
+        <v>202.7212422050105</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>94.47960076638105</v>
+      </c>
+      <c r="C48" t="n">
+        <v>207.4422852410104</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>97.75776272255001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>211.645803408932</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>99.86844980236503</v>
+      </c>
+      <c r="C50" t="n">
+        <v>215.8086895891753</v>
       </c>
     </row>
   </sheetData>
